--- a/experiment result cnn/8192_0.9_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/8192_0.9_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004726226962620239</v>
+        <v>0.000140053999974895</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003803698891408937</v>
+        <v>0.0001400579999743347</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09607876725494147</v>
+        <v>0.001670496909348557</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0003203959588347935</v>
+        <v>0.003363848760630006</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007038416052019688</v>
+        <v>0.0001600639999795036</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001687186500571434</v>
+        <v>0.005708400251722707</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003232311872328254</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.01677370672614364</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03981047035707918</v>
+        <v>0.01801687496744725</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0001600999704125027</v>
+        <v>0.0003002979991678867</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001569672268769623</v>
+        <v>0.0002601099999492697</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0005615668645360321</v>
+        <v>0.0002803399988545458</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.000799919863942e-05</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001162586130675651</v>
+        <v>0.001144161847919552</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.000199959971991e-05</v>
+        <v>0.001423509934829489</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02968839751955234</v>
+        <v>0.004683856865228082</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04927320345542938</v>
+        <v>0.0130293664952178</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0001200719999480978</v>
+        <v>0.002383918228979376</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09989341898134199</v>
+        <v>0.02317269923490682</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.000140053999974895</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0002202419994130702</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0009444141986117719</v>
+        <v>0.001469049183029897</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001999555163779865</v>
+        <v>0.01048342258207452</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.001908061573636974</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.000199999995999e-05</v>
+        <v>0.08946966752500235</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0002001999594308452</v>
+        <v>0.0009637158620655151</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0006216886091539072</v>
+        <v>0.0435125241343898</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.000400799509428473</v>
+        <v>0.0007617879714473802</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.001872772416354351</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03505342090899728</v>
+        <v>0.04288954866130414</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04977190109289504</v>
+        <v>0.04220278267295562</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0006618170560811287</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.008143065143651571</v>
+        <v>0.001224249869249553</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.000100049999974975</v>
+        <v>0.007315993168319423</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003379223194805435</v>
+        <v>0.0006017999674050169</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0002001999795170309</v>
+        <v>0.0002401479998788004</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.000199999995999e-05</v>
+        <v>0.0001800699999716931</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.000199979985996e-05</v>
+        <v>0.0002603379988545858</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0005008255865508918</v>
+        <v>0.01891540129649753</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01152826947011118</v>
+        <v>0.009805748250114451</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.000799999935975e-05</v>
+        <v>0.004175401354330407</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004555469038206033</v>
+        <v>0.003280023636139416</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04905037524671429</v>
+        <v>0.004385185899855722</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04565098501444993</v>
+        <v>0.00725821540636937</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05728603605802234</v>
+        <v>0.0326588059239635</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1321249351291725</v>
+        <v>0.007492625552553972</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0003003419646747902</v>
+        <v>0.0009828819314984161</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03492472225193587</v>
+        <v>0.01014486685450204</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0004003638653653805</v>
+        <v>0.001245607704077111</v>
       </c>
     </row>
     <row r="51">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.001799819441653e-05</v>
+        <v>0.05052131972453056</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07846923069207314</v>
+        <v>0.01895601373019974</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.008586870908330411</v>
+        <v>0.001303585919861771</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.002898552575897999</v>
+        <v>0.02799199913378138</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09699028417385465</v>
+        <v>0.2485838904499357</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008557208755718323</v>
+        <v>0.01716353437184578</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03733794034015794</v>
+        <v>0.01973106332050015</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.09850149717563453</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005345403680799115</v>
+        <v>0.03254402166903728</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.006386911173178238</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>0.007014320010716679</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001186276466420596</v>
+        <v>0.007609113296437664</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.003851095084882581</v>
+        <v>0.006958289560461653</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001143471552245993</v>
+        <v>0.001629417132886328</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02262677983085427</v>
+        <v>0.02653795617015535</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03948323232285012</v>
+        <v>0.06693006582095652</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.002173827149302023</v>
+        <v>0.001669733080315062</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0002402879991685669</v>
+        <v>0.009238117950573081</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01744988236566243</v>
+        <v>0.002134765875676642</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01068629689681181</v>
+        <v>0.100722062788429</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002401479227402068</v>
+        <v>0.008643271992500532</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003291649876371305</v>
+        <v>0.007770155806027791</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.001004994641376661</v>
+        <v>0.027891293950314</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00382142399650947</v>
+        <v>0.01259630924176424</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.008213677008153345</v>
+        <v>0.05908150436063477</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0003004497715016267</v>
+        <v>0.008768095963966053</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001267930028776269</v>
+        <v>0.08308033903534257</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002613221502938637</v>
+        <v>0.008739350641860068</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01271866927502959</v>
+        <v>0.04570673335569856</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0275372884576594</v>
+        <v>0.02540087837024633</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02265633884589517</v>
+        <v>0.008371928570156137</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0084072036841293</v>
+        <v>0.007225482442853816</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>0.02628706573141284</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03049712710898173</v>
+        <v>0.002632828814405629</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.005982911614477158</v>
+        <v>0.01526795582728788</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02227825527316605</v>
+        <v>0.08366172732516361</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.009943251680458925</v>
+        <v>0.07021163999023486</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.003437102090470268</v>
+        <v>0.02577766622367681</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001004427685037458</v>
+        <v>0.0227370531578602</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.003171302580284619</v>
+        <v>0.000120023999996638</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09205994160107828</v>
+        <v>0.01714211741373061</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.08500662570200354</v>
+        <v>0.0128883403090943</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.003988340409239666</v>
+        <v>0.00273279523055153</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0006821784063088885</v>
+        <v>0.01365298090175346</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.007242769417261083</v>
+        <v>0.01521649265410867</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03883406102896279</v>
+        <v>0.002208371656752384</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0005012482142309003</v>
+        <v>0.03862068289963588</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.09605247430589754</v>
+        <v>0.01850665032393238</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07604442893747976</v>
+        <v>0.008315720907143619</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08536604245805354</v>
+        <v>0.01260540304087306</v>
       </c>
     </row>
   </sheetData>
